--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 21,8</t>
+          <t>16,71; 21,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 28,78</t>
+          <t>23,14; 28,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 21,22</t>
+          <t>16,09; 21,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,81; 28,89</t>
+          <t>21,3; 28,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,54; 28,63</t>
+          <t>23,52; 28,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,15; 33,31</t>
+          <t>27,97; 33,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,51</t>
+          <t>20,25; 25,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 31,32</t>
+          <t>26,53; 31,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 24,84</t>
+          <t>21,31; 24,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 30,54</t>
+          <t>26,77; 30,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,12</t>
+          <t>19,03; 23,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,43; 29,37</t>
+          <t>25,34; 29,61</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,91</t>
+          <t>14,91; 18,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 21,56</t>
+          <t>17,99; 21,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 18,28</t>
+          <t>15,15; 18,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 20,76</t>
+          <t>16,58; 20,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 25,72</t>
+          <t>21,76; 25,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 28,14</t>
+          <t>23,64; 27,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,72</t>
+          <t>18,02; 21,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 41,34</t>
+          <t>22,22; 39,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 21,6</t>
+          <t>18,58; 21,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 23,88</t>
+          <t>21,2; 24,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 19,47</t>
+          <t>16,97; 19,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 29,97</t>
+          <t>20,41; 32,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 17,91</t>
+          <t>11,69; 17,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,06</t>
+          <t>11,29; 17,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 17,12</t>
+          <t>11,04; 17,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,63</t>
+          <t>17,78; 25,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 26,39</t>
+          <t>18,41; 25,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 29,4</t>
+          <t>20,74; 30,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 28,59</t>
+          <t>21,25; 28,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 28,69</t>
+          <t>22,49; 28,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,8</t>
+          <t>15,62; 20,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 22,23</t>
+          <t>16,99; 22,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,84</t>
+          <t>16,59; 21,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,33; 25,95</t>
+          <t>21,31; 25,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,81; 18,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 22,16</t>
+          <t>19,43; 22,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 18,04</t>
+          <t>15,45; 18,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,79; 22,05</t>
+          <t>18,69; 21,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,84; 25,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 29,07</t>
+          <t>26,09; 29,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 22,82</t>
+          <t>20,01; 22,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,38; 34,98</t>
+          <t>24,29; 34,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,78; 21,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 25,25</t>
+          <t>23,03; 25,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 20,11</t>
+          <t>18,2; 20,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 28,43</t>
+          <t>22,14; 28,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 21,64</t>
+          <t>16,89; 21,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,14; 28,59</t>
+          <t>22,95; 29,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,09; 21,4</t>
+          <t>16,02; 21,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,52; 28,42</t>
+          <t>23,71; 28,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 33,25</t>
+          <t>28,22; 33,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,89</t>
+          <t>20,1; 26,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 24,81</t>
+          <t>21,42; 24,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 30,5</t>
+          <t>26,86; 30,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,03; 23,18</t>
+          <t>18,85; 22,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,91; 18,68</t>
+          <t>14,95; 18,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 21,79</t>
+          <t>17,92; 21,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 18,56</t>
+          <t>15,24; 18,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,76; 25,98</t>
+          <t>21,48; 25,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,64; 27,93</t>
+          <t>23,72; 28,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,02; 21,51</t>
+          <t>18,13; 21,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 21,49</t>
+          <t>18,76; 21,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 24,03</t>
+          <t>21,15; 23,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 19,43</t>
+          <t>17,02; 19,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,69; 17,93</t>
+          <t>11,48; 17,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,61</t>
+          <t>11,37; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 17,24</t>
+          <t>10,65; 16,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 25,95</t>
+          <t>18,66; 26,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,74; 30,3</t>
+          <t>21,14; 29,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,25; 28,65</t>
+          <t>21,12; 28,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 20,56</t>
+          <t>15,8; 20,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 22,58</t>
+          <t>16,73; 22,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,81</t>
+          <t>16,62; 21,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 18,47</t>
+          <t>15,87; 18,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 22,23</t>
+          <t>19,32; 22,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 18,18</t>
+          <t>15,28; 17,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,84; 25,77</t>
+          <t>22,87; 25,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 29,09</t>
+          <t>26,04; 29,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,01; 22,84</t>
+          <t>20,06; 22,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,83</t>
+          <t>19,73; 21,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,03; 25,2</t>
+          <t>23,16; 25,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 20,26</t>
+          <t>18,14; 20,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,98</t>
+          <t>16,87; 21,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,95; 29,1</t>
+          <t>23,16; 28,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,45</t>
+          <t>15,89; 21,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 28,7</t>
+          <t>21,81; 28,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,71; 28,62</t>
+          <t>23,54; 28,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,22; 33,35</t>
+          <t>28,15; 33,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,1; 26,02</t>
+          <t>20,23; 25,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 31,79</t>
+          <t>26,34; 31,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,42; 24,92</t>
+          <t>21,2; 24,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,86; 30,7</t>
+          <t>26,83; 30,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 22,91</t>
+          <t>18,97; 23,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,34; 29,61</t>
+          <t>25,43; 29,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 18,74</t>
+          <t>15,12; 18,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 21,77</t>
+          <t>17,87; 21,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 18,55</t>
+          <t>14,95; 18,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 20,88</t>
+          <t>16,63; 20,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,48; 25,77</t>
+          <t>21,6; 25,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 28,01</t>
+          <t>23,72; 28,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,77</t>
+          <t>18,04; 21,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,22; 39,52</t>
+          <t>22,17; 41,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 21,44</t>
+          <t>18,62; 21,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,15; 23,9</t>
+          <t>21,21; 23,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,53</t>
+          <t>17,01; 19,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 32,18</t>
+          <t>20,27; 29,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,74</t>
+          <t>11,52; 17,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,37; 17,96</t>
+          <t>11,25; 18,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,85</t>
+          <t>10,89; 17,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,36</t>
+          <t>17,97; 24,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 26,54</t>
+          <t>18,73; 26,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,14; 29,27</t>
+          <t>20,67; 29,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,32</t>
+          <t>21,19; 28,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,72</t>
+          <t>22,29; 28,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 20,75</t>
+          <t>15,73; 20,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 22,45</t>
+          <t>16,85; 22,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,7</t>
+          <t>16,92; 21,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 25,84</t>
+          <t>21,33; 25,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 18,54</t>
+          <t>15,89; 18,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 22,19</t>
+          <t>19,18; 22,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 17,94</t>
+          <t>15,4; 18,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 21,91</t>
+          <t>18,79; 22,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,87; 25,96</t>
+          <t>22,88; 25,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 29,13</t>
+          <t>26,03; 29,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 22,99</t>
+          <t>20,22; 22,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,29; 34,79</t>
+          <t>24,38; 34,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 21,89</t>
+          <t>19,78; 21,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,16; 25,18</t>
+          <t>23,1; 25,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 20,09</t>
+          <t>18,15; 20,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,14; 28,05</t>
+          <t>22,12; 28,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>27,79%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,81; 28,89</t>
+          <t>22,34; 29,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 31,32</t>
+          <t>26,7; 31,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,43; 29,37</t>
+          <t>25,74; 29,8</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 20,76</t>
+          <t>12,49; 20,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 41,34</t>
+          <t>21,36; 52,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 29,97</t>
+          <t>18,74; 34,02</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,81%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,63</t>
+          <t>18,14; 25,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 28,69</t>
+          <t>22,67; 29,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,33; 25,95</t>
+          <t>21,55; 26,41</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>24,26%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,79; 22,05</t>
+          <t>15,18; 21,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,38; 34,98</t>
+          <t>24,03; 42,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 28,43</t>
+          <t>21,12; 32,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 21,8</t>
+          <t>17,16; 21,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 28,78</t>
+          <t>23,16; 28,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 21,22</t>
+          <t>15,81; 21,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,72</t>
+          <t>22,24; 29,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,54; 28,63</t>
+          <t>23,73; 28,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,15; 33,31</t>
+          <t>28,01; 33,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,51</t>
+          <t>20,51; 25,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 31,58</t>
+          <t>26,59; 31,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 24,84</t>
+          <t>21,33; 24,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 30,54</t>
+          <t>26,66; 30,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,12</t>
+          <t>19,02; 22,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,74; 29,8</t>
+          <t>25,71; 29,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,91</t>
+          <t>14,87; 18,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 21,56</t>
+          <t>17,91; 21,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 18,28</t>
+          <t>15,01; 18,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,5</t>
+          <t>12,67; 20,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 25,72</t>
+          <t>21,8; 26,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 28,14</t>
+          <t>23,68; 27,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,72</t>
+          <t>18,13; 21,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 52,67</t>
+          <t>21,37; 48,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 21,6</t>
+          <t>18,64; 21,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 23,88</t>
+          <t>21,19; 24,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 19,47</t>
+          <t>17,03; 19,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 34,02</t>
+          <t>18,91; 36,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 17,91</t>
+          <t>11,63; 17,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,06</t>
+          <t>11,4; 17,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 17,12</t>
+          <t>10,77; 17,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,07</t>
+          <t>18,04; 25,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 26,39</t>
+          <t>18,46; 26,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 29,4</t>
+          <t>21,2; 29,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 28,59</t>
+          <t>21,38; 28,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 29,11</t>
+          <t>23,06; 29,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,8</t>
+          <t>15,62; 20,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 22,23</t>
+          <t>16,79; 22,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,84</t>
+          <t>16,91; 21,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,55; 26,41</t>
+          <t>21,51; 26,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,91; 18,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 22,16</t>
+          <t>19,26; 22,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 18,04</t>
+          <t>15,32; 17,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,86</t>
+          <t>15,22; 21,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,94; 25,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 29,07</t>
+          <t>26,05; 29,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 22,82</t>
+          <t>20,28; 22,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 42,77</t>
+          <t>24,06; 42,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,81; 21,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 25,25</t>
+          <t>23,27; 25,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 20,11</t>
+          <t>18,05; 20,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 32,26</t>
+          <t>21,29; 31,78</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado un servicio de urgencias en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>198788</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>250948</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>139071</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>132945</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>341468</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>409807</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>226995</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>218968</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>540255</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>660755</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>366066</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>351913</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>176998; 225931</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>225578; 280572</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>118941; 160105</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>114537; 151643</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>312108; 371720</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>374398; 444998</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>203431; 257062</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>199863; 238053</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>500612; 581049</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>616095; 706207</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>331715; 398519</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>325604; 379213</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>281950</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>385418</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>346859</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>403857</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>376447</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>453193</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>394868</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>654950</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>658397</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>838611</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>741726</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1058807</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>251656; 312947</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>351337; 424952</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>310734; 381825</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>290135; 469064</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>345914; 413788</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>415672; 488003</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>360371; 430024</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>477557; 1092276</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>611147; 707704</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>787733; 894640</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>690766; 794046</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>855756; 1657051</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69464</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>74892</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>139419</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>106095</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>114308</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>135255</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>171176</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>185703</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>183773</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>210147</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>310596</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64144; 99105</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54837; 86450</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58683; 93709</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>116307; 163712</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>87957; 124766</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>97217; 134785</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>116811; 157344</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>152124; 193782</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160563; 214475</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>157830; 211612</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>184530; 237516</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>280579; 340807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>560346</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>705831</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>560822</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>676222</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>824009</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>977308</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>757117</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1045094</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1384355</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1683138</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1317939</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1721316</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>521268; 607385</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>658030; 758373</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>515810; 604867</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>524994; 747921</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>774989; 873724</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>925052; 1032607</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>714967; 809028</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>876989; 1531163</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1317955; 1449133</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1621820; 1763894</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1244265; 1380486</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1510829; 2255075</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>